--- a/dataset/Correlations/Data 1 Correlations.xlsx
+++ b/dataset/Correlations/Data 1 Correlations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manar 2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manar 2\Desktop\Winter Semester\CISC 850 - Cyber Physical Security\Project\Shared Files\GitHub\False-Data-Injection-Detection-for-Smart-Grid-Systems\dataset\Correlations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09058657-F67D-46A8-8847-9178DE25841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE97CE-8296-44D8-BBF1-62CBB203FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,6 +451,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -761,11 +766,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:DT125"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="125" max="125" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:125">
       <c r="A1" s="1" t="s">
@@ -43609,6 +43617,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:DT125">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataset/Correlations/Data 1 Correlations.xlsx
+++ b/dataset/Correlations/Data 1 Correlations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manar 2\Desktop\Winter Semester\CISC 850 - Cyber Physical Security\Project\Shared Files\GitHub\False-Data-Injection-Detection-for-Smart-Grid-Systems\dataset\Correlations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenn\Documents\School\M.A.Sc\CISC 850\False-Data-Injection-Detection-for-Smart-Grid-Systems\dataset\Correlations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE97CE-8296-44D8-BBF1-62CBB203FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001908E-C321-47CD-A573-7EAD417F6C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
   <si>
     <t>R1-PA1:VH</t>
   </si>
@@ -396,12 +396,15 @@
   <si>
     <t>Attributes</t>
   </si>
+  <si>
+    <t>Attack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -764,18 +767,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU125"/>
+  <dimension ref="A1:DV125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="CW8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DP120" sqref="DP120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="125" max="125" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125">
+    <row r="1" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1154,11 @@
       <c r="DU1" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="2" spans="1:125">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:125">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3.1649353572064047E-2</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:125">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>-0.37327438616514275</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:125">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.9241859294263123E-2</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:125">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>-0.37710238769678761</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:125">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3.0389157670063578E-2</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:125">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.94437170409742877</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:125">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>-3.4589144683903221E-2</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:125">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>-0.37828359310706539</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:125">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>-2.1705710664947971E-2</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:125">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>-0.36493329787765894</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:125">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>-2.702528175794779E-2</v>
       </c>
@@ -5460,7 +5466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:125">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0.99863960975063226</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:125">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3.2915005634222817E-2</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:125">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>-5.2756365018648409E-2</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:125">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>-2.6258340401144005E-2</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:125">
+    <row r="18" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>-5.0840793552546268E-2</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:125">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>-2.0776643156263239E-2</v>
       </c>
@@ -7614,7 +7620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:125">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0.95567800069910025</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:125">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>-2.8735938024482904E-2</v>
       </c>
@@ -8332,7 +8338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:125">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>0.1293856328633835</v>
       </c>
@@ -8691,7 +8697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:125">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>-2.9179661894087536E-2</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:125">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>-0.2342648513610105</v>
       </c>
@@ -9409,7 +9415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:125">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>-2.4595119949065661E-2</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:125">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5.9314513763405264E-3</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:125">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>-1.5158274678465923E-2</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:125">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>-1.8649406267339783E-2</v>
       </c>
@@ -10845,7 +10851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:125">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>-1.1286312624273636E-2</v>
       </c>
@@ -11204,7 +11210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:125">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>0.9123948553117025</v>
       </c>
@@ -11563,7 +11569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:125">
+    <row r="31" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3.461408823268252E-2</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:125">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>-0.40414201169606057</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:125">
+    <row r="33" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2.7985976461084045E-2</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:125">
+    <row r="34" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>-0.32299188690098291</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:125">
+    <row r="35" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2.55687175366466E-2</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:125">
+    <row r="36" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>-0.50606796760161921</v>
       </c>
@@ -13717,7 +13723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:125">
+    <row r="37" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>-3.4117849973496955E-2</v>
       </c>
@@ -14076,7 +14082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:125">
+    <row r="38" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>0.36791212977717103</v>
       </c>
@@ -14435,7 +14441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:125">
+    <row r="39" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>-2.1957589817111236E-2</v>
       </c>
@@ -14794,7 +14800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:125">
+    <row r="40" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>6.4436690975171712E-2</v>
       </c>
@@ -15153,7 +15159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:125">
+    <row r="41" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>-2.6526838040095733E-2</v>
       </c>
@@ -15512,7 +15518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:125">
+    <row r="42" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>0.91101552057674406</v>
       </c>
@@ -15871,7 +15877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:125">
+    <row r="43" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>3.0968595675839261E-2</v>
       </c>
@@ -16230,7 +16236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:125">
+    <row r="44" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>-4.8239982450069503E-2</v>
       </c>
@@ -16589,7 +16595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:125">
+    <row r="45" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>-2.4147696249250165E-2</v>
       </c>
@@ -16948,7 +16954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:125">
+    <row r="46" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>-4.6731343947956284E-2</v>
       </c>
@@ -17307,7 +17313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:125">
+    <row r="47" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>-2.1433263192807406E-2</v>
       </c>
@@ -17666,7 +17672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:125">
+    <row r="48" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>-0.50749976296115173</v>
       </c>
@@ -18025,7 +18031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:125">
+    <row r="49" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>-2.6643410520869656E-2</v>
       </c>
@@ -18384,7 +18390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:125">
+    <row r="50" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>-0.1815812849542322</v>
       </c>
@@ -18743,7 +18749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:125">
+    <row r="51" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>-2.4658962877090632E-2</v>
       </c>
@@ -19102,7 +19108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:125">
+    <row r="52" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0.42314727400002777</v>
       </c>
@@ -19461,7 +19467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:125">
+    <row r="53" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>-1.9320169132648321E-2</v>
       </c>
@@ -19820,7 +19826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:125">
+    <row r="54" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>-1.6703000952667534E-2</v>
       </c>
@@ -20179,7 +20185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:125">
+    <row r="55" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>-1.0929075485087111E-2</v>
       </c>
@@ -20538,7 +20544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:125">
+    <row r="56" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>-4.0196897655790237E-3</v>
       </c>
@@ -20897,7 +20903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:125">
+    <row r="57" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -21028,7 +21034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:125">
+    <row r="58" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>0.91239924820982499</v>
       </c>
@@ -21387,7 +21393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:125">
+    <row r="59" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>3.3853665387141664E-2</v>
       </c>
@@ -21746,7 +21752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:125">
+    <row r="60" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>-0.40417386628132329</v>
       </c>
@@ -22105,7 +22111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:125">
+    <row r="61" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2.8610107160892514E-2</v>
       </c>
@@ -22464,7 +22470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:125">
+    <row r="62" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>-0.32298540978126178</v>
       </c>
@@ -22823,7 +22829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:125">
+    <row r="63" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2.4537175794787584E-2</v>
       </c>
@@ -23182,7 +23188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:125">
+    <row r="64" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>-0.49699849556060954</v>
       </c>
@@ -23541,7 +23547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:125">
+    <row r="65" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>-5.0563799009908664E-2</v>
       </c>
@@ -23900,7 +23906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:125">
+    <row r="66" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>0.3658061694985229</v>
       </c>
@@ -24259,7 +24265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:125">
+    <row r="67" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>-5.1400292842589658E-2</v>
       </c>
@@ -24618,7 +24624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:125">
+    <row r="68" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>6.0196122267905196E-2</v>
       </c>
@@ -24977,7 +24983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:125">
+    <row r="69" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>-5.0395567368802761E-2</v>
       </c>
@@ -25336,7 +25342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:125">
+    <row r="70" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>0.91101912176925981</v>
       </c>
@@ -25695,7 +25701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:125">
+    <row r="71" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>3.0546827297563733E-2</v>
       </c>
@@ -26054,7 +26060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:125">
+    <row r="72" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>-4.8185272037720675E-2</v>
       </c>
@@ -26413,7 +26419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:125">
+    <row r="73" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>-2.4086229446030224E-2</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:125">
+    <row r="74" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>-4.6756945776596691E-2</v>
       </c>
@@ -27131,7 +27137,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:125">
+    <row r="75" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>-2.1414298693551617E-2</v>
       </c>
@@ -27490,7 +27496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:125">
+    <row r="76" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>-0.50265014279425968</v>
       </c>
@@ -27849,7 +27855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:125">
+    <row r="77" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>-4.7776699626114263E-2</v>
       </c>
@@ -28208,7 +28214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:125">
+    <row r="78" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>-0.1920398964843808</v>
       </c>
@@ -28567,7 +28573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:125">
+    <row r="79" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>-3.4325933618546911E-2</v>
       </c>
@@ -28926,7 +28932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:125">
+    <row r="80" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>0.42846422971305836</v>
       </c>
@@ -29285,7 +29291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:125">
+    <row r="81" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>-3.405582558654887E-2</v>
       </c>
@@ -29644,7 +29650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:125">
+    <row r="82" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>-1.6661754232823997E-2</v>
       </c>
@@ -30003,7 +30009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:125">
+    <row r="83" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>-1.5212457557566613E-2</v>
       </c>
@@ -30362,7 +30368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:125">
+    <row r="84" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>-2.7278487596089341E-3</v>
       </c>
@@ -30721,7 +30727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:125">
+    <row r="85" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>2.086165571843946E-2</v>
       </c>
@@ -31080,7 +31086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:125">
+    <row r="86" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>0.97488564794752475</v>
       </c>
@@ -31439,7 +31445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:125">
+    <row r="87" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>3.4448583606033055E-2</v>
       </c>
@@ -31798,7 +31804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:125">
+    <row r="88" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>-0.37228538310367654</v>
       </c>
@@ -32157,7 +32163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:125">
+    <row r="89" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>2.4324186175645492E-2</v>
       </c>
@@ -32516,7 +32522,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:125">
+    <row r="90" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>-0.36701255470724242</v>
       </c>
@@ -32875,7 +32881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:125">
+    <row r="91" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>3.0704620298157969E-2</v>
       </c>
@@ -33234,7 +33240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:125">
+    <row r="92" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>0.91756772841715684</v>
       </c>
@@ -33593,7 +33599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:125">
+    <row r="93" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>-5.1622880103055518E-2</v>
       </c>
@@ -33952,7 +33958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:125">
+    <row r="94" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>-0.36678490180619427</v>
       </c>
@@ -34311,7 +34317,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:125">
+    <row r="95" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>-5.0913252754840495E-2</v>
       </c>
@@ -34670,7 +34676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:125">
+    <row r="96" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>-0.35549896337654791</v>
       </c>
@@ -35029,7 +35035,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:125">
+    <row r="97" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>-5.0781141493108459E-2</v>
       </c>
@@ -35388,7 +35394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:125">
+    <row r="98" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>0.97488342508426595</v>
       </c>
@@ -35747,7 +35753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:125">
+    <row r="99" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>3.3167262554669612E-2</v>
       </c>
@@ -36106,7 +36112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:125">
+    <row r="100" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>-5.1353435606008378E-2</v>
       </c>
@@ -36465,7 +36471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:125">
+    <row r="101" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>-2.792670410962372E-2</v>
       </c>
@@ -36824,7 +36830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:125">
+    <row r="102" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>-4.9319314974263083E-2</v>
       </c>
@@ -37183,7 +37189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:125">
+    <row r="103" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>-2.5613172050736089E-2</v>
       </c>
@@ -37542,7 +37548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:125">
+    <row r="104" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>0.93077907731115672</v>
       </c>
@@ -37901,7 +37907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:125">
+    <row r="105" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>-5.2978997528941953E-2</v>
       </c>
@@ -38260,7 +38266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:125">
+    <row r="106" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>0.13387307628034359</v>
       </c>
@@ -38619,7 +38625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:125">
+    <row r="107" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>-2.8047389585767239E-2</v>
       </c>
@@ -38978,7 +38984,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:125">
+    <row r="108" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>-0.23626115274867721</v>
       </c>
@@ -39337,7 +39343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:125">
+    <row r="109" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>-2.7374039789742725E-2</v>
       </c>
@@ -39696,7 +39702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:125">
+    <row r="110" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>-9.327086793661149E-3</v>
       </c>
@@ -40055,7 +40061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:125">
+    <row r="111" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>-9.6663118574711066E-3</v>
       </c>
@@ -40414,7 +40420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:125">
+    <row r="112" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>-2.5644845093020296E-2</v>
       </c>
@@ -40773,7 +40779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:125">
+    <row r="113" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>-1.4274235781909688E-2</v>
       </c>
@@ -41132,7 +41138,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:125">
+    <row r="114" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -41263,7 +41269,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:125">
+    <row r="115" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -41394,7 +41400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:125">
+    <row r="116" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -41525,7 +41531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:125">
+    <row r="117" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -41656,7 +41662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:125">
+    <row r="118" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>-1.9143647489810702E-2</v>
       </c>
@@ -42015,7 +42021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:125">
+    <row r="119" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>-1.3578032749903012E-2</v>
       </c>
@@ -42374,7 +42380,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:125">
+    <row r="120" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>2.444963897096545E-2</v>
       </c>
@@ -42733,7 +42739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:125">
+    <row r="121" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>-4.1755945735198448E-3</v>
       </c>
@@ -43092,7 +43098,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:125">
+    <row r="122" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -43223,7 +43229,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:125">
+    <row r="123" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -43354,7 +43360,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:125">
+    <row r="124" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -43485,7 +43491,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:125">
+    <row r="125" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
